--- a/Laszlo_Papp/02_Work/UI Fields list_motor_product_PL.xlsx
+++ b/Laszlo_Papp/02_Work/UI Fields list_motor_product_PL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\TRAINING\Excercise\02_Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git Repos\Training sandbox\Laszlo_Papp\02_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01D3897-4CFE-44F1-B25B-86FE5BECB0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F368DF3-CEB1-4AA2-AD5F-B717FD416A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -924,12 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -941,6 +935,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5528,34 +5528,34 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="48.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="40.77734375" style="22" customWidth="1"/>
-    <col min="14" max="14" width="42.77734375" style="22" customWidth="1"/>
-    <col min="15" max="15" width="22.88671875" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="42.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="17" max="17" width="85" customWidth="1"/>
-    <col min="18" max="18" width="38.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="14"/>
-    <col min="20" max="20" width="9.109375" style="15"/>
+    <col min="18" max="18" width="38.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="14"/>
+    <col min="20" max="20" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -5611,36 +5611,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-    </row>
-    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -5675,14 +5675,14 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -5719,14 +5719,14 @@
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -5759,14 +5759,14 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -5799,14 +5799,14 @@
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:20" s="19" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="19" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -5847,7 +5847,7 @@
       <c r="S7" s="17"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="22" t="s">
         <v>67</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -5887,14 +5887,14 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -5929,7 +5929,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -5969,14 +5969,14 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -6009,14 +6009,14 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -6051,7 +6051,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -6083,14 +6083,14 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -6115,29 +6115,29 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>134</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>136</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -6219,7 +6219,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>134</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -6261,7 +6261,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>134</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="23" t="s">
         <v>139</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -6345,7 +6345,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>6</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="D21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>140</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -6385,7 +6385,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>8</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>133</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>142</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -6467,7 +6467,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>9</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>133</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>143</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -6507,7 +6507,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>10</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>133</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>144</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -6549,7 +6549,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>11</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>12</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>133</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="23" t="s">
         <v>146</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -6633,7 +6633,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>13</v>
       </c>
@@ -6644,7 +6644,7 @@
       <c r="D28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>147</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -6673,7 +6673,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>14</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>15</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>16</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>17</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>18</v>
       </c>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>19</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>20</v>
       </c>
@@ -6943,14 +6943,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>21</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>83</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -6975,14 +6975,14 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="12"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>22</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -7007,29 +7007,29 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="12"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="21"/>
-    </row>
-    <row r="39" spans="1:18" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="1:18" ht="210" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -7063,14 +7063,14 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="12"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="23" t="s">
         <v>125</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -7093,7 +7093,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="12"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7113,7 +7113,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="12"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7133,7 +7133,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="12"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7153,7 +7153,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="12"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7173,7 +7173,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="12"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7193,7 +7193,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7213,7 +7213,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="12"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7233,7 +7233,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7253,7 +7253,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="12"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7273,7 +7273,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="12"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7293,7 +7293,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="12"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7313,7 +7313,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="12"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7333,7 +7333,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="12"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7353,7 +7353,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7373,7 +7373,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="12"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7393,7 +7393,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="12"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7413,7 +7413,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="12"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7433,7 +7433,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="12"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7453,7 +7453,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="12"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7473,7 +7473,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="12"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7493,7 +7493,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7513,7 +7513,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7533,7 +7533,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="12"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7553,7 +7553,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="12"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7573,7 +7573,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="12"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7593,7 +7593,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="12"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -7613,7 +7613,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="12"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -7633,7 +7633,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7653,7 +7653,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="12"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7673,7 +7673,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="12"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7693,7 +7693,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="12"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -7713,7 +7713,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="12"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7733,7 +7733,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="12"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7753,7 +7753,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="12"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7773,7 +7773,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="12"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7856,22 +7856,22 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>22</v>
       </c>
@@ -7941,17 +7941,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>118</v>
       </c>
@@ -7968,6 +7968,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x01010099CDED3ECB2B4843831D8747C02ED9CF" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="76a815337efc6a58b2e8bd6b7d520bd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad" xmlns:ns3="c1503785-5146-4d31-9a3a-ab405e6c3296" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae8f8b2acb53c9f89b3f048a00ead611" ns2:_="" ns3:_="">
     <xsd:import namespace="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad"/>
@@ -8170,15 +8179,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C2522A-973B-457D-9E35-D7F6FF2370A5}">
   <ds:schemaRefs>
@@ -8197,6 +8197,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DA6FAC-CD55-4FF4-A70B-E9594B162970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D11A46C-97B6-4A4C-A3AD-0D9A4FDB3E7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8213,12 +8221,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DA6FAC-CD55-4FF4-A70B-E9594B162970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Laszlo_Papp/02_Work/UI Fields list_motor_product_PL.xlsx
+++ b/Laszlo_Papp/02_Work/UI Fields list_motor_product_PL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git Repos\Training sandbox\Laszlo_Papp\02_Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F368DF3-CEB1-4AA2-AD5F-B717FD416A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD8057-DAA7-4943-8854-2DF38874F4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -1214,91 +1214,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$F$2:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1510,91 +1425,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1806,91 +1636,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$H$2:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2102,85 +1847,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$I$2:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2392,85 +2058,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$J$2:$J$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2682,49 +2269,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$K$2:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2938,34 +2482,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$L$2:$L$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3179,58 +2695,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$M$2:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3444,25 +2908,6 @@
           <c:val>
             <c:numRef>
               <c:f>'UI Field List Specification'!$N$2:$N$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5527,35 +4972,35 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" style="20" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
     <col min="17" max="17" width="85" customWidth="1"/>
-    <col min="18" max="18" width="38.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="14"/>
-    <col min="20" max="20" width="9.140625" style="15"/>
+    <col min="18" max="18" width="38.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="14"/>
+    <col min="20" max="20" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5611,7 +5056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>41</v>
       </c>
@@ -5633,7 +5078,7 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="25"/>
     </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5675,7 +5120,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5719,7 +5164,7 @@
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5759,7 +5204,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5799,7 +5244,7 @@
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:20" s="19" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="19" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -5847,14 +5292,14 @@
       <c r="S7" s="17"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -5887,7 +5332,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -5929,14 +5374,14 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -5969,7 +5414,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -6009,7 +5454,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -6051,7 +5496,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -6083,7 +5528,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -6115,7 +5560,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>42</v>
       </c>
@@ -6137,7 +5582,7 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -6179,7 +5624,7 @@
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -6219,7 +5664,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -6261,7 +5706,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -6303,7 +5748,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -6345,7 +5790,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>6</v>
       </c>
@@ -6385,7 +5830,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>7</v>
       </c>
@@ -6396,7 +5841,7 @@
       <c r="D22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="23" t="s">
         <v>141</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -6427,7 +5872,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>8</v>
       </c>
@@ -6467,7 +5912,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>9</v>
       </c>
@@ -6507,7 +5952,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>10</v>
       </c>
@@ -6549,7 +5994,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>11</v>
       </c>
@@ -6591,7 +6036,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>12</v>
       </c>
@@ -6633,7 +6078,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>13</v>
       </c>
@@ -6673,7 +6118,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>14</v>
       </c>
@@ -6684,7 +6129,7 @@
       <c r="D29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="23" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -6715,7 +6160,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>15</v>
       </c>
@@ -6757,7 +6202,7 @@
       </c>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>16</v>
       </c>
@@ -6797,7 +6242,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>17</v>
       </c>
@@ -6837,7 +6282,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>18</v>
       </c>
@@ -6872,7 +6317,7 @@
       </c>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>19</v>
       </c>
@@ -6911,7 +6356,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>20</v>
       </c>
@@ -6943,7 +6388,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>21</v>
       </c>
@@ -6975,7 +6420,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="12"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>22</v>
       </c>
@@ -7007,7 +6452,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="12"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>89</v>
       </c>
@@ -7029,7 +6474,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -7063,7 +6508,7 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="12"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -7093,7 +6538,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="12"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7113,7 +6558,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="12"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7133,7 +6578,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="12"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7153,7 +6598,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="12"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7173,7 +6618,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="12"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7193,7 +6638,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7213,7 +6658,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="12"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7233,7 +6678,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="12"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7253,7 +6698,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="12"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7273,7 +6718,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="12"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7293,7 +6738,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="12"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7313,7 +6758,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="12"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7333,7 +6778,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="12"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7353,7 +6798,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7373,7 +6818,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="12"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7393,7 +6838,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="12"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7413,7 +6858,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="12"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7433,7 +6878,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="12"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7453,7 +6898,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="12"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7473,7 +6918,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="12"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7493,7 +6938,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7513,7 +6958,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7533,7 +6978,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="12"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7553,7 +6998,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="12"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7573,7 +7018,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="12"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7593,7 +7038,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="12"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -7613,7 +7058,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="12"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -7633,7 +7078,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7653,7 +7098,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="12"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7673,7 +7118,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="12"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7693,7 +7138,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="12"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -7713,7 +7158,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="12"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7733,7 +7178,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="12"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7753,7 +7198,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="12"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7773,7 +7218,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="12"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7856,22 +7301,22 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -7888,7 +7333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -7905,7 +7350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -7922,7 +7367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -7933,7 +7378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>22</v>
       </c>
@@ -7941,17 +7386,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>118</v>
       </c>
@@ -7968,15 +7413,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x01010099CDED3ECB2B4843831D8747C02ED9CF" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="76a815337efc6a58b2e8bd6b7d520bd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad" xmlns:ns3="c1503785-5146-4d31-9a3a-ab405e6c3296" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae8f8b2acb53c9f89b3f048a00ead611" ns2:_="" ns3:_="">
     <xsd:import namespace="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad"/>
@@ -8179,6 +7615,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C2522A-973B-457D-9E35-D7F6FF2370A5}">
   <ds:schemaRefs>
@@ -8197,14 +7642,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DA6FAC-CD55-4FF4-A70B-E9594B162970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D11A46C-97B6-4A4C-A3AD-0D9A4FDB3E7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8221,4 +7658,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DA6FAC-CD55-4FF4-A70B-E9594B162970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>